--- a/城投中大/城投中大审查资料/11.安全生产标准化评审体系文件不符合项汇总表.xlsx
+++ b/城投中大/城投中大审查资料/11.安全生产标准化评审体系文件不符合项汇总表.xlsx
@@ -2323,7 +2323,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2332,23 +2344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2649,32 +2649,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -2719,7 +2719,7 @@
         <f>D4-E4</f>
         <v>2</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -2739,7 +2739,7 @@
         <f t="shared" ref="F5:F65" si="0">D5-E5</f>
         <v>2</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="27.75" thickBot="1">
       <c r="A6" s="5" t="s">
@@ -2759,7 +2759,7 @@
         <f>D6-E6</f>
         <v>3</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="35"/>
       <c r="H6">
         <f>SUM(F4:F6)</f>
         <v>7</v>
@@ -2785,7 +2785,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -2805,7 +2805,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="27.75" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -2825,7 +2825,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" thickBot="1">
       <c r="A10" s="5" t="s">
@@ -2845,7 +2845,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" thickBot="1">
       <c r="A11" s="5" t="s">
@@ -2867,7 +2867,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="68.25" thickBot="1">
       <c r="A12" s="5" t="s">
@@ -2887,7 +2887,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" thickBot="1">
       <c r="A13" s="5" t="s">
@@ -2909,7 +2909,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="41.25" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -2929,7 +2929,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:10" ht="41.25" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2949,7 +2949,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:10" ht="27.75" thickBot="1">
       <c r="A16" s="5" t="s">
@@ -2969,7 +2969,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
       <c r="A17" s="5" t="s">
@@ -2989,7 +2989,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="27.75" thickBot="1">
       <c r="A18" s="5" t="s">
@@ -3009,7 +3009,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="27.75" thickBot="1">
       <c r="A19" s="5" t="s">
@@ -3029,7 +3029,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="26.25" thickBot="1">
       <c r="A20" s="5" t="s">
@@ -3049,7 +3049,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" ht="41.25" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3071,7 +3071,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" thickBot="1">
       <c r="A22" s="5" t="s">
@@ -3091,7 +3091,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="54.75" thickBot="1">
       <c r="A23" s="5" t="s">
@@ -3111,7 +3111,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" ht="26.25" thickBot="1">
       <c r="A24" s="5" t="s">
@@ -3133,7 +3133,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="26.25" thickBot="1">
       <c r="A25" s="5" t="s">
@@ -3153,7 +3153,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="26.25" thickBot="1">
       <c r="A26" s="5" t="s">
@@ -3173,7 +3173,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="26.25" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -3193,7 +3193,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="27.75" thickBot="1">
       <c r="A28" s="5" t="s">
@@ -3213,7 +3213,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="27.75" thickBot="1">
       <c r="A29" s="5" t="s">
@@ -3233,7 +3233,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="27.75" thickBot="1">
       <c r="A30" s="5" t="s">
@@ -3253,7 +3253,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" ht="26.25" thickBot="1">
       <c r="A31" s="5" t="s">
@@ -3273,7 +3273,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="41.25" thickBot="1">
       <c r="A32" s="5" t="s">
@@ -3293,7 +3293,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" ht="54.75" thickBot="1">
       <c r="A33" s="5" t="s">
@@ -3313,7 +3313,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" ht="27.75" thickBot="1">
       <c r="A34" s="5" t="s">
@@ -3333,7 +3333,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" ht="27.75" thickBot="1">
       <c r="A35" s="5" t="s">
@@ -3353,7 +3353,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" ht="41.25" thickBot="1">
       <c r="A36" s="5" t="s">
@@ -3373,7 +3373,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" ht="27.75" thickBot="1">
       <c r="A37" s="5" t="s">
@@ -3393,7 +3393,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" ht="27.75" thickBot="1">
       <c r="A38" s="5" t="s">
@@ -3413,7 +3413,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G38" s="30"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" ht="27.75" thickBot="1">
       <c r="A39" s="5" t="s">
@@ -3433,7 +3433,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="30"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7" ht="27.75" thickBot="1">
       <c r="A40" s="5" t="s">
@@ -3453,7 +3453,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7" ht="27.75" thickBot="1">
       <c r="A41" s="5" t="s">
@@ -3473,7 +3473,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G41" s="30"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="42" spans="1:7" ht="41.25" thickBot="1">
       <c r="A42" s="5" t="s">
@@ -3493,7 +3493,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G42" s="30"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="1:7" ht="26.25" thickBot="1">
       <c r="A43" s="5" t="s">
@@ -3513,7 +3513,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G43" s="30"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="26.25" thickBot="1">
       <c r="A44" s="5" t="s">
@@ -3533,7 +3533,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G44" s="30"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="1:7" ht="26.25" thickBot="1">
       <c r="A45" s="5" t="s">
@@ -3553,7 +3553,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G45" s="30"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" ht="27.75" thickBot="1">
       <c r="A46" s="5" t="s">
@@ -3573,13 +3573,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7" ht="27.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -3595,13 +3595,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G47" s="29"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="11" t="s">
         <v>169</v>
       </c>
@@ -3615,13 +3615,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G48" s="30"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49" spans="1:8" ht="54.75" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="15" t="s">
         <v>170</v>
       </c>
@@ -3635,13 +3635,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="1:8" ht="27.75" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="16" t="s">
         <v>15</v>
       </c>
@@ -3655,13 +3655,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G50" s="30"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:8" ht="27.75" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="16" t="s">
         <v>171</v>
       </c>
@@ -3675,13 +3675,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:8" ht="26.25" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="16" t="s">
         <v>16</v>
       </c>
@@ -3695,13 +3695,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G52" s="30"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:8" ht="27.75" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="16" t="s">
         <v>17</v>
       </c>
@@ -3715,13 +3715,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:8" ht="27.75" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="11" t="s">
         <v>172</v>
       </c>
@@ -3735,13 +3735,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="1:8" ht="32.25" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="17" t="s">
         <v>173</v>
       </c>
@@ -3755,13 +3755,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G55" s="30"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="1:8" ht="27.75" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="13" t="s">
         <v>174</v>
       </c>
@@ -3775,13 +3775,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G56" s="30"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:8" ht="26.25" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="33"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="13" t="s">
         <v>175</v>
       </c>
@@ -3795,13 +3795,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G57" s="30"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="1:8" ht="26.25" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="33"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="13" t="s">
         <v>176</v>
       </c>
@@ -3815,13 +3815,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="1:8" ht="27.75" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="33"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="15" t="s">
         <v>18</v>
       </c>
@@ -3835,13 +3835,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G59" s="30"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="1:8" ht="27.75" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="16" t="s">
         <v>177</v>
       </c>
@@ -3855,13 +3855,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G60" s="30"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:8" ht="54.75" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="16" t="s">
         <v>178</v>
       </c>
@@ -3875,13 +3875,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G61" s="30"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62" spans="1:8" ht="26.25" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="33"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="18" t="s">
         <v>179</v>
       </c>
@@ -3895,13 +3895,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G62" s="30"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63" spans="1:8" ht="27.75" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="19" t="s">
         <v>181</v>
       </c>
@@ -3915,13 +3915,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G63" s="30"/>
+      <c r="G63" s="34"/>
     </row>
     <row r="64" spans="1:8" ht="41.25" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="11" t="s">
         <v>180</v>
       </c>
@@ -3935,7 +3935,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G64" s="31"/>
+      <c r="G64" s="35"/>
       <c r="H64">
         <f>SUM(F47:F64)</f>
         <v>76</v>
@@ -3961,7 +3961,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G65" s="29"/>
+      <c r="G65" s="36"/>
     </row>
     <row r="66" spans="1:8" ht="26.25" thickBot="1">
       <c r="A66" s="5" t="s">
@@ -3981,7 +3981,7 @@
         <f t="shared" ref="F66:F95" si="1">D66-E66</f>
         <v>2</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="34"/>
     </row>
     <row r="67" spans="1:8" ht="27.75" thickBot="1">
       <c r="A67" s="5" t="s">
@@ -4001,7 +4001,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G67" s="30"/>
+      <c r="G67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="26.25" thickBot="1">
       <c r="A68" s="5" t="s">
@@ -4021,7 +4021,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G68" s="30"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="26.25" thickBot="1">
       <c r="A69" s="5" t="s">
@@ -4041,7 +4041,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G69" s="30"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:8" ht="26.25" thickBot="1">
       <c r="A70" s="5" t="s">
@@ -4061,7 +4061,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G70" s="30"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" spans="1:8" ht="26.25" thickBot="1">
       <c r="A71" s="5" t="s">
@@ -4081,7 +4081,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G71" s="30"/>
+      <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:8" ht="26.25" thickBot="1">
       <c r="A72" s="5" t="s">
@@ -4101,7 +4101,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G72" s="31"/>
+      <c r="G72" s="35"/>
       <c r="H72">
         <f>SUM(F65:F72)</f>
         <v>30</v>
@@ -4127,7 +4127,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G73" s="29"/>
+      <c r="G73" s="36"/>
     </row>
     <row r="74" spans="1:8" ht="26.25" thickBot="1">
       <c r="A74" s="5" t="s">
@@ -4147,7 +4147,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G74" s="30"/>
+      <c r="G74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="27.75" thickBot="1">
       <c r="A75" s="5" t="s">
@@ -4167,7 +4167,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G75" s="30"/>
+      <c r="G75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="27.75" thickBot="1">
       <c r="A76" s="5" t="s">
@@ -4187,7 +4187,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G76" s="31"/>
+      <c r="G76" s="35"/>
       <c r="H76">
         <f>SUM(F73:F76)</f>
         <v>16</v>
@@ -4211,7 +4211,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G77" s="29"/>
+      <c r="G77" s="36"/>
     </row>
     <row r="78" spans="1:8" ht="26.25" thickBot="1">
       <c r="A78" s="5" t="s">
@@ -4231,7 +4231,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G78" s="30"/>
+      <c r="G78" s="34"/>
     </row>
     <row r="79" spans="1:8" ht="26.25" thickBot="1">
       <c r="A79" s="5" t="s">
@@ -4251,7 +4251,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G79" s="30"/>
+      <c r="G79" s="34"/>
     </row>
     <row r="80" spans="1:8" ht="27.75" thickBot="1">
       <c r="A80" s="5" t="s">
@@ -4271,7 +4271,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G80" s="30"/>
+      <c r="G80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="26.25" thickBot="1">
       <c r="A81" s="5" t="s">
@@ -4291,7 +4291,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G81" s="30"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="1:8" ht="26.25" thickBot="1">
       <c r="A82" s="5" t="s">
@@ -4311,7 +4311,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G82" s="30"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" spans="1:8" ht="26.25" thickBot="1">
       <c r="A83" s="5" t="s">
@@ -4331,7 +4331,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G83" s="31"/>
+      <c r="G83" s="35"/>
       <c r="H83">
         <f>SUM(F77:F83)</f>
         <v>19</v>
@@ -4357,7 +4357,7 @@
         <f>D85-E85</f>
         <v>2</v>
       </c>
-      <c r="G84" s="29"/>
+      <c r="G84" s="36"/>
     </row>
     <row r="85" spans="1:8" ht="26.25" thickBot="1">
       <c r="A85" s="5" t="s">
@@ -4377,7 +4377,7 @@
         <f>D85-E85</f>
         <v>2</v>
       </c>
-      <c r="G85" s="30"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="1:8" ht="26.25" thickBot="1">
       <c r="A86" s="5" t="s">
@@ -4397,7 +4397,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G86" s="30"/>
+      <c r="G86" s="34"/>
     </row>
     <row r="87" spans="1:8" ht="26.25" thickBot="1">
       <c r="A87" s="5" t="s">
@@ -4417,7 +4417,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G87" s="30"/>
+      <c r="G87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="27.75" thickBot="1">
       <c r="A88" s="5" t="s">
@@ -4437,7 +4437,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G88" s="30"/>
+      <c r="G88" s="34"/>
     </row>
     <row r="89" spans="1:8" ht="26.25" thickBot="1">
       <c r="A89" s="5" t="s">
@@ -4457,7 +4457,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G89" s="31"/>
+      <c r="G89" s="35"/>
       <c r="H89">
         <f>SUM(F84:F89)</f>
         <v>12</v>
@@ -4483,7 +4483,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G90" s="29"/>
+      <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:8" ht="26.25" thickBot="1">
       <c r="A91" s="5" t="s">
@@ -4503,7 +4503,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G91" s="30"/>
+      <c r="G91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="27.75" thickBot="1">
       <c r="A92" s="5" t="s">
@@ -4523,7 +4523,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G92" s="31"/>
+      <c r="G92" s="35"/>
       <c r="H92">
         <f>SUM(F90:F92)</f>
         <v>8</v>
@@ -4549,7 +4549,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G93" s="29"/>
+      <c r="G93" s="36"/>
     </row>
     <row r="94" spans="1:8" ht="27.75" thickBot="1">
       <c r="A94" s="5" t="s">
@@ -4569,7 +4569,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G94" s="30"/>
+      <c r="G94" s="34"/>
     </row>
     <row r="95" spans="1:8" ht="26.25" thickBot="1">
       <c r="A95" s="5" t="s">
@@ -4589,7 +4589,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G95" s="30"/>
+      <c r="G95" s="34"/>
     </row>
     <row r="96" spans="1:8" ht="26.25" thickBot="1">
       <c r="A96" s="5" t="s">
@@ -4608,7 +4608,7 @@
         <f t="shared" ref="F96" si="2">D96-E96</f>
         <v>2</v>
       </c>
-      <c r="G96" s="31"/>
+      <c r="G96" s="35"/>
       <c r="H96">
         <f>SUM(F93:F96)</f>
         <v>8</v>
@@ -4616,6 +4616,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B46"/>
+    <mergeCell ref="B47:B64"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="B73:B76"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B77:B83"/>
@@ -4632,18 +4644,6 @@
     <mergeCell ref="G73:G76"/>
     <mergeCell ref="G77:G83"/>
     <mergeCell ref="G84:G89"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B46"/>
-    <mergeCell ref="B47:B64"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="B73:B76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
